--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H2">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I2">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J2">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>4.931101949795101</v>
+        <v>12.43539675932889</v>
       </c>
       <c r="R2">
-        <v>4.931101949795101</v>
+        <v>111.91857083396</v>
       </c>
       <c r="S2">
-        <v>0.004809867158824332</v>
+        <v>0.009650348862135678</v>
       </c>
       <c r="T2">
-        <v>0.004809867158824332</v>
+        <v>0.009650348862135675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H3">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I3">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J3">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>27.93169611763622</v>
+        <v>36.78820241156622</v>
       </c>
       <c r="R3">
-        <v>27.93169611763622</v>
+        <v>331.093821704096</v>
       </c>
       <c r="S3">
-        <v>0.02724497469618571</v>
+        <v>0.02854906796730422</v>
       </c>
       <c r="T3">
-        <v>0.02724497469618571</v>
+        <v>0.02854906796730421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H4">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I4">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J4">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>2.213744685849276</v>
+        <v>3.274294102825777</v>
       </c>
       <c r="R4">
-        <v>2.213744685849276</v>
+        <v>29.46864692543199</v>
       </c>
       <c r="S4">
-        <v>0.002159318134343331</v>
+        <v>0.00254097886710352</v>
       </c>
       <c r="T4">
-        <v>0.002159318134343331</v>
+        <v>0.002540978867103519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H5">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I5">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J5">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>3.220326526765995</v>
+        <v>4.294502636174221</v>
       </c>
       <c r="R5">
-        <v>3.220326526765995</v>
+        <v>38.65052372556799</v>
       </c>
       <c r="S5">
-        <v>0.003141152415724483</v>
+        <v>0.00333270014865848</v>
       </c>
       <c r="T5">
-        <v>0.003141152415724483</v>
+        <v>0.003332700148658479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H6">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I6">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J6">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>0.7150282708786225</v>
+        <v>0.9415047213146666</v>
       </c>
       <c r="R6">
-        <v>0.7150282708786225</v>
+        <v>8.473542491831999</v>
       </c>
       <c r="S6">
-        <v>0.0006974487716428054</v>
+        <v>0.0007306440793067793</v>
       </c>
       <c r="T6">
-        <v>0.0006974487716428054</v>
+        <v>0.0007306440793067792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.188398595833513</v>
+        <v>0.2464613333333333</v>
       </c>
       <c r="H7">
-        <v>0.188398595833513</v>
+        <v>0.7393839999999999</v>
       </c>
       <c r="I7">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="J7">
-        <v>0.04320499180253427</v>
+        <v>0.0508000738176635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N7">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q7">
-        <v>5.28209483668017</v>
+        <v>7.726849270223111</v>
       </c>
       <c r="R7">
-        <v>5.28209483668017</v>
+        <v>69.541643432008</v>
       </c>
       <c r="S7">
-        <v>0.00515223062581361</v>
+        <v>0.005996333893154825</v>
       </c>
       <c r="T7">
-        <v>0.00515223062581361</v>
+        <v>0.005996333893154825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H8">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I8">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J8">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N8">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O8">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P8">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q8">
-        <v>92.36277894245225</v>
+        <v>188.2427307180872</v>
       </c>
       <c r="R8">
-        <v>92.36277894245225</v>
+        <v>1694.184576462785</v>
       </c>
       <c r="S8">
-        <v>0.09009197166396295</v>
+        <v>0.1460836398989689</v>
       </c>
       <c r="T8">
-        <v>0.09009197166396295</v>
+        <v>0.1460836398989688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H9">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I9">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J9">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N9">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q9">
-        <v>523.1790176449678</v>
+        <v>556.8870711718796</v>
       </c>
       <c r="R9">
-        <v>523.1790176449678</v>
+        <v>5011.983640546916</v>
       </c>
       <c r="S9">
-        <v>0.5103162742885633</v>
+        <v>0.4321659065353094</v>
       </c>
       <c r="T9">
-        <v>0.5103162742885633</v>
+        <v>0.4321659065353093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H10">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I10">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J10">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N10">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q10">
-        <v>41.46489225651098</v>
+        <v>49.56513049152744</v>
       </c>
       <c r="R10">
-        <v>41.46489225651098</v>
+        <v>446.086174423747</v>
       </c>
       <c r="S10">
-        <v>0.04044544719199503</v>
+        <v>0.03846445834401605</v>
       </c>
       <c r="T10">
-        <v>0.04044544719199503</v>
+        <v>0.03846445834401604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H11">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I11">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J11">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N11">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q11">
-        <v>60.31883139762744</v>
+        <v>65.00869404934755</v>
       </c>
       <c r="R11">
-        <v>60.31883139762744</v>
+        <v>585.0782464441279</v>
       </c>
       <c r="S11">
-        <v>0.05883584828542546</v>
+        <v>0.05044926099180647</v>
       </c>
       <c r="T11">
-        <v>0.05883584828542546</v>
+        <v>0.05044926099180646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H12">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I12">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J12">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N12">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q12">
-        <v>13.3929492420067</v>
+        <v>14.25217250034967</v>
       </c>
       <c r="R12">
-        <v>13.3929492420067</v>
+        <v>128.269552503147</v>
       </c>
       <c r="S12">
-        <v>0.01306367367269825</v>
+        <v>0.01106023710651058</v>
       </c>
       <c r="T12">
-        <v>0.01306367367269825</v>
+        <v>0.01106023710651058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.52882946594974</v>
+        <v>3.730846333333333</v>
       </c>
       <c r="H13">
-        <v>3.52882946594974</v>
+        <v>11.192539</v>
       </c>
       <c r="I13">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="J13">
-        <v>0.8092578794145091</v>
+        <v>0.7689939292804249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N13">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q13">
-        <v>98.93710629398589</v>
+        <v>116.9663690370548</v>
       </c>
       <c r="R13">
-        <v>98.93710629398589</v>
+        <v>1052.697321333493</v>
       </c>
       <c r="S13">
-        <v>0.09650466431186412</v>
+        <v>0.09077042640381347</v>
       </c>
       <c r="T13">
-        <v>0.09650466431186412</v>
+        <v>0.09077042640381346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H14">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I14">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J14">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N14">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O14">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P14">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q14">
-        <v>16.83880943049118</v>
+        <v>2.918193647294444</v>
       </c>
       <c r="R14">
-        <v>16.83880943049118</v>
+        <v>26.26374282565</v>
       </c>
       <c r="S14">
-        <v>0.01642481483814919</v>
+        <v>0.002264631140340015</v>
       </c>
       <c r="T14">
-        <v>0.01642481483814919</v>
+        <v>0.002264631140340014</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H15">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I15">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J15">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N15">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q15">
-        <v>95.38162317143133</v>
+        <v>8.633025600271111</v>
       </c>
       <c r="R15">
-        <v>95.38162317143133</v>
+        <v>77.69723040244</v>
       </c>
       <c r="S15">
-        <v>0.09303659537330973</v>
+        <v>0.006699561774405391</v>
       </c>
       <c r="T15">
-        <v>0.09303659537330973</v>
+        <v>0.006699561774405388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H16">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I16">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J16">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N16">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q16">
-        <v>7.559532386939892</v>
+        <v>0.7683730913588889</v>
       </c>
       <c r="R16">
-        <v>7.559532386939892</v>
+        <v>6.915357822229999</v>
       </c>
       <c r="S16">
-        <v>0.007373675688356424</v>
+        <v>0.0005962872380672719</v>
       </c>
       <c r="T16">
-        <v>0.007373675688356424</v>
+        <v>0.0005962872380672718</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H17">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I17">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J17">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N17">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q17">
-        <v>10.99682489639489</v>
+        <v>1.007783712391111</v>
       </c>
       <c r="R17">
-        <v>10.99682489639489</v>
+        <v>9.070053411519998</v>
       </c>
       <c r="S17">
-        <v>0.01072645981750781</v>
+        <v>0.0007820791399242246</v>
       </c>
       <c r="T17">
-        <v>0.01072645981750781</v>
+        <v>0.0007820791399242244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.643346676769576</v>
+        <v>0.05783666666666667</v>
       </c>
       <c r="H18">
-        <v>0.643346676769576</v>
+        <v>0.17351</v>
       </c>
       <c r="I18">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="J18">
-        <v>0.1475371287829566</v>
+        <v>0.0119211679020682</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N18">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q18">
-        <v>2.441690501093584</v>
+        <v>0.2209413298033333</v>
       </c>
       <c r="R18">
-        <v>2.441690501093584</v>
+        <v>1.98847196823</v>
       </c>
       <c r="S18">
-        <v>0.002381659733015935</v>
+        <v>0.0001714590175071672</v>
       </c>
       <c r="T18">
-        <v>0.002381659733015935</v>
+        <v>0.0001714590175071671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05783666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.17351</v>
+      </c>
+      <c r="I19">
+        <v>0.0119211679020682</v>
+      </c>
+      <c r="J19">
+        <v>0.0119211679020682</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N19">
+        <v>94.053487</v>
+      </c>
+      <c r="O19">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P19">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q19">
+        <v>1.813246725485556</v>
+      </c>
+      <c r="R19">
+        <v>16.31922052937</v>
+      </c>
+      <c r="S19">
+        <v>0.001407149591824132</v>
+      </c>
+      <c r="T19">
+        <v>0.001407149591824131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.092656</v>
+      </c>
+      <c r="H20">
+        <v>0.277968</v>
+      </c>
+      <c r="I20">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J20">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N20">
+        <v>151.367315</v>
+      </c>
+      <c r="O20">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P20">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q20">
+        <v>4.675029979546666</v>
+      </c>
+      <c r="R20">
+        <v>42.07526981592</v>
+      </c>
+      <c r="S20">
+        <v>0.003628004085171076</v>
+      </c>
+      <c r="T20">
+        <v>0.003628004085171074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.092656</v>
+      </c>
+      <c r="H21">
+        <v>0.277968</v>
+      </c>
+      <c r="I21">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J21">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N21">
+        <v>447.796844</v>
+      </c>
+      <c r="O21">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P21">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q21">
+        <v>13.83035479255467</v>
+      </c>
+      <c r="R21">
+        <v>124.473193132992</v>
+      </c>
+      <c r="S21">
+        <v>0.01073289025017531</v>
+      </c>
+      <c r="T21">
+        <v>0.0107328902501753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.092656</v>
+      </c>
+      <c r="H22">
+        <v>0.277968</v>
+      </c>
+      <c r="I22">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J22">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N22">
+        <v>39.855673</v>
+      </c>
+      <c r="O22">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P22">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q22">
+        <v>1.230955745829333</v>
+      </c>
+      <c r="R22">
+        <v>11.078601712464</v>
+      </c>
+      <c r="S22">
+        <v>0.0009552692697313322</v>
+      </c>
+      <c r="T22">
+        <v>0.0009552692697313319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.092656</v>
+      </c>
+      <c r="H23">
+        <v>0.277968</v>
+      </c>
+      <c r="I23">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J23">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N23">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P23">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q23">
+        <v>1.614498432170667</v>
+      </c>
+      <c r="R23">
+        <v>14.530485889536</v>
+      </c>
+      <c r="S23">
+        <v>0.00125291322901537</v>
+      </c>
+      <c r="T23">
+        <v>0.00125291322901537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.092656</v>
+      </c>
+      <c r="H24">
+        <v>0.277968</v>
+      </c>
+      <c r="I24">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J24">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.820091</v>
+      </c>
+      <c r="N24">
+        <v>11.460273</v>
+      </c>
+      <c r="O24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q24">
+        <v>0.353954351696</v>
+      </c>
+      <c r="R24">
+        <v>3.185589165264</v>
+      </c>
+      <c r="S24">
+        <v>0.0002746822671801754</v>
+      </c>
+      <c r="T24">
+        <v>0.0002746822671801754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.092656</v>
+      </c>
+      <c r="H25">
+        <v>0.277968</v>
+      </c>
+      <c r="I25">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="J25">
+        <v>0.01909805313470171</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N25">
+        <v>94.053487</v>
+      </c>
+      <c r="O25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q25">
+        <v>2.904873297157334</v>
+      </c>
+      <c r="R25">
+        <v>26.143859674416</v>
+      </c>
+      <c r="S25">
+        <v>0.00225429403342845</v>
+      </c>
+      <c r="T25">
+        <v>0.002254294033428449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.171381</v>
+      </c>
+      <c r="I26">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J26">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N26">
+        <v>151.367315</v>
+      </c>
+      <c r="O26">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P26">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q26">
+        <v>36.51956797911278</v>
+      </c>
+      <c r="R26">
+        <v>328.676111812015</v>
+      </c>
+      <c r="S26">
+        <v>0.02834059725746437</v>
+      </c>
+      <c r="T26">
+        <v>0.02834059725746436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H27">
+        <v>2.171381</v>
+      </c>
+      <c r="I27">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J27">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N27">
+        <v>447.796844</v>
+      </c>
+      <c r="O27">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P27">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q27">
+        <v>108.0375065468405</v>
+      </c>
+      <c r="R27">
+        <v>972.3375589215641</v>
+      </c>
+      <c r="S27">
+        <v>0.08384128376041815</v>
+      </c>
+      <c r="T27">
+        <v>0.08384128376041813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.643346676769576</v>
-      </c>
-      <c r="H19">
-        <v>0.643346676769576</v>
-      </c>
-      <c r="I19">
-        <v>0.1475371287829566</v>
-      </c>
-      <c r="J19">
-        <v>0.1475371287829566</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="N19">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="O19">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="P19">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="Q19">
-        <v>18.03738581238107</v>
-      </c>
-      <c r="R19">
-        <v>18.03738581238107</v>
-      </c>
-      <c r="S19">
-        <v>0.0175939233326175</v>
-      </c>
-      <c r="T19">
-        <v>0.0175939233326175</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H28">
+        <v>2.171381</v>
+      </c>
+      <c r="I28">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J28">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N28">
+        <v>39.855673</v>
+      </c>
+      <c r="O28">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P28">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q28">
+        <v>9.615761232712556</v>
+      </c>
+      <c r="R28">
+        <v>86.541851094413</v>
+      </c>
+      <c r="S28">
+        <v>0.007462202635477789</v>
+      </c>
+      <c r="T28">
+        <v>0.007462202635477787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H29">
+        <v>2.171381</v>
+      </c>
+      <c r="I29">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J29">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N29">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O29">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P29">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q29">
+        <v>12.61185179641245</v>
+      </c>
+      <c r="R29">
+        <v>113.506666167712</v>
+      </c>
+      <c r="S29">
+        <v>0.009787284795849248</v>
+      </c>
+      <c r="T29">
+        <v>0.009787284795849246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H30">
+        <v>2.171381</v>
+      </c>
+      <c r="I30">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J30">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.820091</v>
+      </c>
+      <c r="N30">
+        <v>11.460273</v>
+      </c>
+      <c r="O30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q30">
+        <v>2.764957671890334</v>
+      </c>
+      <c r="R30">
+        <v>24.884619047013</v>
+      </c>
+      <c r="S30">
+        <v>0.002145714096557721</v>
+      </c>
+      <c r="T30">
+        <v>0.002145714096557721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7237936666666668</v>
+      </c>
+      <c r="H31">
+        <v>2.171381</v>
+      </c>
+      <c r="I31">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="J31">
+        <v>0.1491867758651418</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N31">
+        <v>94.053487</v>
+      </c>
+      <c r="O31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q31">
+        <v>22.69177273950523</v>
+      </c>
+      <c r="R31">
+        <v>204.225954655547</v>
+      </c>
+      <c r="S31">
+        <v>0.01760969331937453</v>
+      </c>
+      <c r="T31">
+        <v>0.01760969331937453</v>
       </c>
     </row>
   </sheetData>
